--- a/TestPlan.xlsx
+++ b/TestPlan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="146">
   <si>
     <t xml:space="preserve">Test Case ID</t>
   </si>
@@ -55,88 +55,28 @@
     <t xml:space="preserve">TC001</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">To verify the itunes search API for the query </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">parameter “term”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">To verify the itunes search API for the query </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">parameter “term” with different types of test data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Send a GET request to the API endpoint by parameterizing the data from the DATA column
-GET URL: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://itunes.apple.com/search
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">To verify the itunes search API for the query parameter “term”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the itunes search API for the query parameter “term” with different types of test data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send a GET request to the API endpoint by parameterizing the data from the DATA column
+GET URL: https://itunes.apple.com/search
 Note: Refer to github project for sample data
 Generic params:
 {
-	"term": "",
-	"country": "",
-	"callback": "",
-	"limit": "",
-	"lang": "",
-	"version": "",
-	"explicit": "",
-	"media": "",
-	"entity": "",
-	"attribute": ""
+_x0001_"term": "",
+_x0001_"country": "",
+_x0001_"callback": "",
+_x0001_"limit": "",
+_x0001_"lang": "",
+_x0001_"version": "",
+_x0001_"explicit": "",
+_x0001_"media": "",
+_x0001_"entity": "",
+_x0001_"attribute": ""
 }</t>
-    </r>
   </si>
   <si>
     <r>
@@ -203,43 +143,6 @@
     <t xml:space="preserve">should get info on what the response should be in this case</t>
   </si>
   <si>
-    <t xml:space="preserve">TC003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eg: [&lt;try above max length&gt;]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with “term” parameter
-Eg: with “term” parameter in the request
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as expected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">without “term” parameter
-Eg: no “term” parameter in the request
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: In all the cases related to “term” parameter, all other query parameters are valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To verify the itunes search API for the query parameter “country”</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -247,7 +150,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">To verify the itunes search API for the query </t>
+      <t xml:space="preserve">in case of input data </t>
     </r>
     <r>
       <rPr>
@@ -255,51 +158,51 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">parameter “country” with different types of test data</t>
+      <t xml:space="preserve">[ala_nwalker] seems like some AI is used to match the input string, it can be tested by getting more info related to this</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Send a GET request to the API endpoint by parameterizing the data from the DATA column
-GET URL: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://itunes.apple.com/search
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Note: Refer to github project for sample data
-Generic params:
-{
-	"term": "",
-	"country": "",
-	"callback": "",
-	"limit": "",
-	"lang": "",
-	"version": "",
-	"explicit": "",
-	"media": "",
-	"entity": "",
-	"attribute": ""
-}</t>
-    </r>
+    <t xml:space="preserve">TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eg: [&lt;try above max length&gt;]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this can be tested by getting more info related to the boundary lengths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with “term” parameter
+Eg: with “term” parameter in the request
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without “term” parameter
+Eg: no “term” parameter in the request
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: In all the cases related to “term” parameter, all other query parameters are valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the itunes search API for the query parameter “country”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the itunes search API for the query parameter “country” with different types of test data</t>
   </si>
   <si>
     <t xml:space="preserve">Valid country codes
@@ -318,6 +221,9 @@
     <t xml:space="preserve">InValid country codes
 Any of [I N], [U.S], [”], [’], [#], [&amp;], [&lt;], [&gt;], [=], [ ]
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">since it is performance related testdata it can be tested by getting more related info</t>
   </si>
   <si>
     <t xml:space="preserve">TC008</t>
@@ -375,6 +281,21 @@
     <t xml:space="preserve">To verify the itunes search API for the query parameter “media”</t>
   </si>
   <si>
+    <t xml:space="preserve">To verify the itunes search API for the query parameter “media” with different types of test data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid values
+Any of [movie, podcast, music, musicVideo, audiobook, shortFilm, tvShow, software, ebook, all]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invalid values
+Any of [abc], [123], [”], [’], [#], [&amp;], [&lt;], [&gt;], [=], [ ]
+</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -382,7 +303,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">To verify the itunes search API for the query </t>
+      <t xml:space="preserve">should get info on what the response should be in this case
+</t>
     </r>
     <r>
       <rPr>
@@ -390,20 +312,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">parameter “media” with different types of test data</t>
+      <t xml:space="preserve">since it is performance related testdata it can be tested by getting more related info</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">valid values
-Any of [movie, podcast, music, musicVideo, audiobook, shortFilm, tvShow, software, ebook, all]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invalid values
-Any of [abc], [123], [”], [’], [#], [&amp;], [&lt;], [&gt;], [=], [ ]
-</t>
   </si>
   <si>
     <t xml:space="preserve">TC012</t>
@@ -428,51 +338,10 @@
     <t xml:space="preserve">TC014</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">To verify the itunes search API for the query parameter “</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">entity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">To verify the itunes search API for the query </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">parameter “entity” with different types of test data</t>
-    </r>
+    <t xml:space="preserve">To verify the itunes search API for the query parameter “entity”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the itunes search API for the query parameter “entity” with different types of test data</t>
   </si>
   <si>
     <t xml:space="preserve">Valid params
@@ -562,51 +431,10 @@
     <t xml:space="preserve">TC018</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">To verify the itunes search API for the query parameter “</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">attribute</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">To verify the itunes search API for the query </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">parameter “attribute” with different types of test data</t>
-    </r>
+    <t xml:space="preserve">To verify the itunes search API for the query parameter “attribute”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the itunes search API for the query parameter “attribute” with different types of test data</t>
   </si>
   <si>
     <t xml:space="preserve">Valid params
@@ -897,24 +725,8 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">API returns a response 200
-with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">result in version 2</t>
-    </r>
+    <t xml:space="preserve">API returns a response 200
+with result in version 2</t>
   </si>
   <si>
     <t xml:space="preserve">Note: In all the cases related to “version” parameter, all other query parameters are valid</t>
@@ -983,7 +795,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">able to get response for invalid input</t>
+    <t xml:space="preserve">able to get response for invalid input which should not be the case</t>
   </si>
   <si>
     <t xml:space="preserve">TC042</t>
@@ -994,24 +806,8 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">API returns a response 200
-with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">result containing explicit content</t>
-    </r>
+    <t xml:space="preserve">API returns a response 200
+with result containing explicit content</t>
   </si>
   <si>
     <t xml:space="preserve">Note: In all the cases related to “explicit” parameter, all other query parameters are valid</t>
@@ -1024,7 +820,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1055,11 +851,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1067,7 +858,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1150,6 +940,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1166,15 +960,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1257,15 +1047,15 @@
   </sheetPr>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.17"/>
@@ -1314,112 +1104,116 @@
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="47.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1432,102 +1226,102 @@
     </row>
     <row r="8" customFormat="false" ht="69.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="2"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>27</v>
+      <c r="G10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>43</v>
+      <c r="J11" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1540,100 +1334,99 @@
     </row>
     <row r="13" customFormat="false" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>34</v>
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>27</v>
+      <c r="G13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="58.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="2"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>27</v>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="50.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>27</v>
+      <c r="G16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1646,102 +1439,102 @@
     </row>
     <row r="18" customFormat="false" ht="228.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="127.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6" t="s">
+      <c r="G19" s="8"/>
+      <c r="H19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="4" t="s">
-        <v>62</v>
+      <c r="I19" s="8"/>
+      <c r="J19" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1754,102 +1547,102 @@
     </row>
     <row r="23" customFormat="false" ht="137.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>34</v>
+        <v>73</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="127.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1862,54 +1655,54 @@
     </row>
     <row r="28" customFormat="false" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>34</v>
+        <v>80</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>27</v>
+      <c r="G28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1922,144 +1715,144 @@
     </row>
     <row r="31" customFormat="false" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>34</v>
+        <v>87</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="59.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="6" t="s">
+      <c r="G32" s="8"/>
+      <c r="H32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="4" t="s">
-        <v>90</v>
+      <c r="I32" s="8"/>
+      <c r="J32" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+        <v>94</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="7"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="G34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+        <v>98</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2072,142 +1865,142 @@
     </row>
     <row r="38" customFormat="false" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>34</v>
+        <v>103</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="59.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+        <v>108</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>27</v>
+      <c r="G39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+        <v>110</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="6" t="s">
+      <c r="G40" s="8"/>
+      <c r="H40" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="4" t="s">
-        <v>109</v>
+      <c r="J40" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+        <v>113</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>27</v>
+        <v>114</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+        <v>115</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>27</v>
+      <c r="G42" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
       <c r="E43" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>27</v>
+        <v>118</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -2220,102 +2013,102 @@
     </row>
     <row r="45" customFormat="false" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>34</v>
+        <v>121</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>27</v>
+      <c r="G45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="59.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+        <v>125</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="6" t="s">
+      <c r="G46" s="8"/>
+      <c r="H46" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="4" t="s">
-        <v>124</v>
+      <c r="J46" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F47" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>27</v>
+      <c r="G47" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+        <v>130</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>27</v>
+        <v>131</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2328,80 +2121,80 @@
     </row>
     <row r="50" customFormat="false" ht="57.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>34</v>
+        <v>134</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F50" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="6" t="s">
+      <c r="G50" s="8"/>
+      <c r="H50" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="59.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="6" t="s">
+      <c r="G51" s="8"/>
+      <c r="H51" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+        <v>142</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>27</v>
+        <v>143</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -2456,16 +2249,16 @@
     <mergeCell ref="B53:J53"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://itunes.apple.com/search"/>
-    <hyperlink ref="D8" r:id="rId2" display="https://itunes.apple.com/search"/>
-    <hyperlink ref="D13" r:id="rId3" display="https://itunes.apple.com/search"/>
-    <hyperlink ref="D18" r:id="rId4" display="https://itunes.apple.com/search"/>
-    <hyperlink ref="D23" r:id="rId5" display="https://itunes.apple.com/search"/>
-    <hyperlink ref="D28" r:id="rId6" display="https://itunes.apple.com/search"/>
-    <hyperlink ref="D31" r:id="rId7" display="https://itunes.apple.com/search"/>
-    <hyperlink ref="D38" r:id="rId8" display="https://itunes.apple.com/search"/>
-    <hyperlink ref="D45" r:id="rId9" display="https://itunes.apple.com/search"/>
-    <hyperlink ref="D50" r:id="rId10" display="https://itunes.apple.com/search"/>
+    <hyperlink ref="D2" r:id="rId1" display="Send a GET request to the API endpoint by parameterizing the data from the DATA column&#10;&#10;GET URL: https://itunes.apple.com/search&#10;&#10;Note: Refer to github project for sample data&#10;&#10;Generic params:&#10;{&#10;_x0001_&quot;term&quot;: &quot;&quot;,&#10;_x0001_&quot;country&quot;: &quot;&quot;,&#10;_x0001_&quot;callback&quot;: &quot;&quot;,&#10;_x0001_&quot;limit&quot;: &quot;&quot;,&#10;_x0001_&quot;lang&quot;: &quot;&quot;,&#10;_x0001_&quot;version&quot;: &quot;&quot;,&#10;_x0001_&quot;explicit&quot;: &quot;&quot;,&#10;_x0001_&quot;media&quot;: &quot;&quot;,&#10;_x0001_&quot;entity&quot;: &quot;&quot;,&#10;_x0001_&quot;attribute&quot;: &quot;&quot;&#10;}"/>
+    <hyperlink ref="D8" r:id="rId2" display="Send a GET request to the API endpoint by parameterizing the data from the DATA column&#10;&#10;GET URL: https://itunes.apple.com/search&#10;&#10;Note: Refer to github project for sample data&#10;&#10;Generic params:&#10;{&#10;_x0001_&quot;term&quot;: &quot;&quot;,&#10;_x0001_&quot;country&quot;: &quot;&quot;,&#10;_x0001_&quot;callback&quot;: &quot;&quot;,&#10;_x0001_&quot;limit&quot;: &quot;&quot;,&#10;_x0001_&quot;lang&quot;: &quot;&quot;,&#10;_x0001_&quot;version&quot;: &quot;&quot;,&#10;_x0001_&quot;explicit&quot;: &quot;&quot;,&#10;_x0001_&quot;media&quot;: &quot;&quot;,&#10;_x0001_&quot;entity&quot;: &quot;&quot;,&#10;_x0001_&quot;attribute&quot;: &quot;&quot;&#10;}"/>
+    <hyperlink ref="D13" r:id="rId3" display="Send a GET request to the API endpoint by parameterizing the data from the DATA column&#10;&#10;GET URL: https://itunes.apple.com/search&#10;&#10;Note: Refer to github project for sample data&#10;&#10;Generic params:&#10;{&#10;_x0001_&quot;term&quot;: &quot;&quot;,&#10;_x0001_&quot;country&quot;: &quot;&quot;,&#10;_x0001_&quot;callback&quot;: &quot;&quot;,&#10;_x0001_&quot;limit&quot;: &quot;&quot;,&#10;_x0001_&quot;lang&quot;: &quot;&quot;,&#10;_x0001_&quot;version&quot;: &quot;&quot;,&#10;_x0001_&quot;explicit&quot;: &quot;&quot;,&#10;_x0001_&quot;media&quot;: &quot;&quot;,&#10;_x0001_&quot;entity&quot;: &quot;&quot;,&#10;_x0001_&quot;attribute&quot;: &quot;&quot;&#10;}"/>
+    <hyperlink ref="D18" r:id="rId4" display="Send a GET request to the API endpoint by parameterizing the data from the DATA column&#10;&#10;GET URL: https://itunes.apple.com/search&#10;&#10;Note: Refer to github project for sample data&#10;&#10;Generic params:&#10;{&#10;_x0001_&quot;term&quot;: &quot;&quot;,&#10;_x0001_&quot;country&quot;: &quot;&quot;,&#10;_x0001_&quot;callback&quot;: &quot;&quot;,&#10;_x0001_&quot;limit&quot;: &quot;&quot;,&#10;_x0001_&quot;lang&quot;: &quot;&quot;,&#10;_x0001_&quot;version&quot;: &quot;&quot;,&#10;_x0001_&quot;explicit&quot;: &quot;&quot;,&#10;_x0001_&quot;media&quot;: &quot;&quot;,&#10;_x0001_&quot;entity&quot;: &quot;&quot;,&#10;_x0001_&quot;attribute&quot;: &quot;&quot;&#10;}"/>
+    <hyperlink ref="D23" r:id="rId5" display="Send a GET request to the API endpoint by parameterizing the data from the DATA column&#10;&#10;GET URL: https://itunes.apple.com/search&#10;&#10;Note: Refer to github project for sample data&#10;&#10;Generic params:&#10;{&#10;_x0001_&quot;term&quot;: &quot;&quot;,&#10;_x0001_&quot;country&quot;: &quot;&quot;,&#10;_x0001_&quot;callback&quot;: &quot;&quot;,&#10;_x0001_&quot;limit&quot;: &quot;&quot;,&#10;_x0001_&quot;lang&quot;: &quot;&quot;,&#10;_x0001_&quot;version&quot;: &quot;&quot;,&#10;_x0001_&quot;explicit&quot;: &quot;&quot;,&#10;_x0001_&quot;media&quot;: &quot;&quot;,&#10;_x0001_&quot;entity&quot;: &quot;&quot;,&#10;_x0001_&quot;attribute&quot;: &quot;&quot;&#10;}"/>
+    <hyperlink ref="D28" r:id="rId6" display="Send a GET request to the API endpoint by parameterizing the data from the DATA column&#10;&#10;GET URL: https://itunes.apple.com/search&#10;&#10;Note: Refer to github project for sample data&#10;&#10;Generic params:&#10;{&#10;_x0001_&quot;term&quot;: &quot;&quot;,&#10;_x0001_&quot;country&quot;: &quot;&quot;,&#10;_x0001_&quot;callback&quot;: &quot;&quot;,&#10;_x0001_&quot;limit&quot;: &quot;&quot;,&#10;_x0001_&quot;lang&quot;: &quot;&quot;,&#10;_x0001_&quot;version&quot;: &quot;&quot;,&#10;_x0001_&quot;explicit&quot;: &quot;&quot;,&#10;_x0001_&quot;media&quot;: &quot;&quot;,&#10;_x0001_&quot;entity&quot;: &quot;&quot;,&#10;_x0001_&quot;attribute&quot;: &quot;&quot;&#10;}"/>
+    <hyperlink ref="D31" r:id="rId7" display="Send a GET request to the API endpoint by parameterizing the data from the DATA column&#10;&#10;GET URL: https://itunes.apple.com/search&#10;&#10;Note: Refer to github project for sample data&#10;&#10;Generic params:&#10;{&#10;_x0001_&quot;term&quot;: &quot;&quot;,&#10;_x0001_&quot;country&quot;: &quot;&quot;,&#10;_x0001_&quot;callback&quot;: &quot;&quot;,&#10;_x0001_&quot;limit&quot;: &quot;&quot;,&#10;_x0001_&quot;lang&quot;: &quot;&quot;,&#10;_x0001_&quot;version&quot;: &quot;&quot;,&#10;_x0001_&quot;explicit&quot;: &quot;&quot;,&#10;_x0001_&quot;media&quot;: &quot;&quot;,&#10;_x0001_&quot;entity&quot;: &quot;&quot;,&#10;_x0001_&quot;attribute&quot;: &quot;&quot;&#10;}"/>
+    <hyperlink ref="D38" r:id="rId8" display="Send a GET request to the API endpoint by parameterizing the data from the DATA column&#10;&#10;GET URL: https://itunes.apple.com/search&#10;&#10;Note: Refer to github project for sample data&#10;&#10;Generic params:&#10;{&#10;_x0001_&quot;term&quot;: &quot;&quot;,&#10;_x0001_&quot;country&quot;: &quot;&quot;,&#10;_x0001_&quot;callback&quot;: &quot;&quot;,&#10;_x0001_&quot;limit&quot;: &quot;&quot;,&#10;_x0001_&quot;lang&quot;: &quot;&quot;,&#10;_x0001_&quot;version&quot;: &quot;&quot;,&#10;_x0001_&quot;explicit&quot;: &quot;&quot;,&#10;_x0001_&quot;media&quot;: &quot;&quot;,&#10;_x0001_&quot;entity&quot;: &quot;&quot;,&#10;_x0001_&quot;attribute&quot;: &quot;&quot;&#10;}"/>
+    <hyperlink ref="D45" r:id="rId9" display="Send a GET request to the API endpoint by parameterizing the data from the DATA column&#10;&#10;GET URL: https://itunes.apple.com/search&#10;&#10;Note: Refer to github project for sample data&#10;&#10;Generic params:&#10;{&#10;_x0001_&quot;term&quot;: &quot;&quot;,&#10;_x0001_&quot;country&quot;: &quot;&quot;,&#10;_x0001_&quot;callback&quot;: &quot;&quot;,&#10;_x0001_&quot;limit&quot;: &quot;&quot;,&#10;_x0001_&quot;lang&quot;: &quot;&quot;,&#10;_x0001_&quot;version&quot;: &quot;&quot;,&#10;_x0001_&quot;explicit&quot;: &quot;&quot;,&#10;_x0001_&quot;media&quot;: &quot;&quot;,&#10;_x0001_&quot;entity&quot;: &quot;&quot;,&#10;_x0001_&quot;attribute&quot;: &quot;&quot;&#10;}"/>
+    <hyperlink ref="D50" r:id="rId10" display="Send a GET request to the API endpoint by parameterizing the data from the DATA column&#10;&#10;GET URL: https://itunes.apple.com/search&#10;&#10;Note: Refer to github project for sample data&#10;&#10;Generic params:&#10;{&#10;_x0001_&quot;term&quot;: &quot;&quot;,&#10;_x0001_&quot;country&quot;: &quot;&quot;,&#10;_x0001_&quot;callback&quot;: &quot;&quot;,&#10;_x0001_&quot;limit&quot;: &quot;&quot;,&#10;_x0001_&quot;lang&quot;: &quot;&quot;,&#10;_x0001_&quot;version&quot;: &quot;&quot;,&#10;_x0001_&quot;explicit&quot;: &quot;&quot;,&#10;_x0001_&quot;media&quot;: &quot;&quot;,&#10;_x0001_&quot;entity&quot;: &quot;&quot;,&#10;_x0001_&quot;attribute&quot;: &quot;&quot;&#10;}"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
